--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value636.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value636.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.209518813666552</v>
+        <v>1.194193959236145</v>
       </c>
       <c r="B1">
-        <v>2.267930800519265</v>
+        <v>2.381388187408447</v>
       </c>
       <c r="C1">
-        <v>3.393903201355609</v>
+        <v>4.318923473358154</v>
       </c>
       <c r="D1">
-        <v>3.350092093306241</v>
+        <v>2.76301646232605</v>
       </c>
       <c r="E1">
-        <v>1.126428146075704</v>
+        <v>1.115826845169067</v>
       </c>
     </row>
   </sheetData>
